--- a/Classes/ValueDomain.xlsx
+++ b/Classes/ValueDomain.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Registry Classes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Geothermal_DOE\ContentModelsDevelopment\Linked Data Registry\Classes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13785"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="24000" windowHeight="13788"/>
   </bookViews>
   <sheets>
     <sheet name="ValueDomain" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="84">
   <si>
     <t>class/vocabularystatistical-summary-procedures</t>
   </si>
@@ -146,9 +146,6 @@
     <t>Percent of whole</t>
   </si>
   <si>
-    <t>Real number greater than 0</t>
-  </si>
-  <si>
     <t xml:space="preserve">free text narrative text. </t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>dct:description</t>
   </si>
   <si>
-    <t>skos:prefLabel</t>
-  </si>
-  <si>
     <t>URI</t>
   </si>
   <si>
@@ -294,6 +288,21 @@
   </si>
   <si>
     <t>def/concept/date-range</t>
+  </si>
+  <si>
+    <t>dcdtr:domainName</t>
+  </si>
+  <si>
+    <t>Positive real number</t>
+  </si>
+  <si>
+    <t>real number, greater than or equal to 0.</t>
+  </si>
+  <si>
+    <t>Real number</t>
+  </si>
+  <si>
+    <t>Real number, -infinity &lt; x &lt; infinity</t>
   </si>
 </sst>
 </file>
@@ -674,78 +683,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K26"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="31.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="1" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="5" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="str">
-        <f t="shared" ref="A2:A26" si="0">"class/value-domain/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(B2,"_","-")," ","-"))</f>
+        <f t="shared" ref="A2:A27" si="0">"class/value-domain/"&amp;LOWER(SUBSTITUTE(SUBSTITUTE(B2,"_","-")," ","-"))</f>
         <v>class/value-domain/agent-identifiers</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
@@ -754,19 +763,19 @@
       <c r="J2" s="3"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/cementation-factors</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>28</v>
@@ -782,19 +791,19 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/controlled-vocabulary</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>1</v>
@@ -806,26 +815,26 @@
       <c r="J4" s="3"/>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/degrees-of-latitude</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H5" s="3"/>
       <c r="I5" s="3">
@@ -836,26 +845,26 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/degrees-of-longitude</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H6" s="3"/>
       <c r="I6" s="3">
@@ -866,47 +875,47 @@
       </c>
       <c r="K6" s="2"/>
     </row>
-    <row r="7" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/era-of-geothermal-drilling</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/geothermal-fluid-temperature-range-c</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>28</v>
@@ -922,25 +931,25 @@
       </c>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/geothermal-power-plant-status-terms-draft</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -948,25 +957,25 @@
       <c r="J9" s="3"/>
       <c r="K9" s="2"/>
     </row>
-    <row r="10" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/geothermal-power-plant-types</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -974,19 +983,19 @@
       <c r="J10" s="3"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/http-uri</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>21</v>
@@ -997,22 +1006,22 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/megawatts-of-power</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -1026,19 +1035,19 @@
       <c r="J12" s="3"/>
       <c r="K12" s="2"/>
     </row>
-    <row r="13" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/name-string</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -1050,19 +1059,19 @@
       <c r="J13" s="3"/>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/narrative-text</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>21</v>
@@ -1074,17 +1083,19 @@
       <c r="J14" s="3"/>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" ht="28.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>class/value-domain/real-number-greater-than-0</v>
+        <v>class/value-domain/positive-real-number</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D15" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -1098,7 +1109,7 @@
       <c r="J15" s="3"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="16" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/percent-of-whole</v>
@@ -1110,7 +1121,7 @@
         <v>29</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -1126,7 +1137,7 @@
       </c>
       <c r="K16" s="2"/>
     </row>
-    <row r="17" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/positive-integer</v>
@@ -1138,7 +1149,7 @@
         <v>26</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>6</v>
@@ -1152,7 +1163,7 @@
       <c r="J17" s="3"/>
       <c r="K17" s="2"/>
     </row>
-    <row r="18" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/software-environment-terms</v>
@@ -1164,7 +1175,7 @@
         <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>1</v>
@@ -1176,7 +1187,7 @@
       <c r="J18" s="3"/>
       <c r="K18" s="2"/>
     </row>
-    <row r="19" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/string-255</v>
@@ -1188,7 +1199,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>21</v>
@@ -1200,7 +1211,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="2"/>
     </row>
-    <row r="20" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/unique-bitstream</v>
@@ -1212,7 +1223,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>18</v>
@@ -1224,7 +1235,7 @@
       <c r="J20" s="3"/>
       <c r="K20" s="2"/>
     </row>
-    <row r="21" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/units-of-measurement-terms</v>
@@ -1236,7 +1247,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>1</v>
@@ -1250,7 +1261,7 @@
       <c r="J21" s="3"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/us-county-name</v>
@@ -1262,7 +1273,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>1</v>
@@ -1276,7 +1287,7 @@
       <c r="J22" s="3"/>
       <c r="K22" s="2"/>
     </row>
-    <row r="23" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/us-state-name</v>
@@ -1288,7 +1299,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>1</v>
@@ -1302,7 +1313,7 @@
       <c r="J23" s="3"/>
       <c r="K23" s="2"/>
     </row>
-    <row r="24" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/utm-zones</v>
@@ -1314,7 +1325,7 @@
         <v>7</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>6</v>
@@ -1330,7 +1341,7 @@
       </c>
       <c r="K24" s="2"/>
     </row>
-    <row r="25" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/valid-plss-section-number</v>
@@ -1342,7 +1353,7 @@
         <v>4</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E25" s="3" t="s">
         <v>1</v>
@@ -1358,7 +1369,7 @@
       </c>
       <c r="K25" s="2"/>
     </row>
-    <row r="26" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>class/value-domain/statistical-summary-procedures</v>
@@ -1370,7 +1381,7 @@
         <v>2</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="3" t="s">
         <v>1</v>
@@ -1383,6 +1394,24 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>class/value-domain/real-number</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="D1:D26"/>
